--- a/output.xlsx
+++ b/output.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Workskill Conditions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Workskill Conditions Rules" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Workskill Conditions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Workskill Conditions Rules" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,24 +414,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -465,7 +446,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,7 +462,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -497,7 +478,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -513,7 +494,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -529,7 +510,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -545,7 +526,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -561,7 +542,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -580,7 +561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -623,7 +604,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -633,11 +614,6 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>in</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -648,7 +624,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -658,11 +634,6 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>in</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -673,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -683,11 +654,6 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>in</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -698,7 +664,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -708,11 +674,6 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>in</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -723,7 +684,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -733,11 +694,6 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>in</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +704,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -758,11 +714,6 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>in</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -773,7 +724,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -783,11 +734,6 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>in</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Workskill Conditions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Workskill Conditions Rules" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Workzones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,320 +424,513 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>internalId</t>
+          <t>workZoneLabel</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>workZoneName</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>requiredLevel</t>
+          <t>status</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>preferableLevel</t>
+          <t>travelArea</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>keys</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>34</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ALTAMONTE SPRINGS</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>ALTAMONTE SPRINGS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['32701', '32714']</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>35</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CASSELBERRY</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>CASSELBERRY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['32707', '32718', '32730']</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>36</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CHULUOTA</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+          <t>CHULUOTA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['32766']</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>37</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GENEVA</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>plumber</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+          <t>GENEVA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['32732']</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>38</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HEATHROW</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>plumber</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
+          <t>HEATHROW</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['32746']</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>39</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LAKE MARY</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>electrician</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
+          <t>LAKE MARY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['32795']</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>40</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LONGWOOD</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>electrician</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>condition_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>valueList</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aworktype</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['06']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>aworktype</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['02', '03', '07', '08', '11']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>aworktype</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['01', '04', '05', '09', '10', 'MD']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>37</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>plumbers_needed</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>38</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>plumbers_needed</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['2']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>39</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>electricians_needed</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>40</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>electricians_needed</t>
+          <t>LONGWOOD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['32750', '32779']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>OVIEDO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OVIEDO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['32762', '32765']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SANFORD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SANFORD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['32771', '32773']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WINTER SPRINGS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WINTER SPRINGS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['32708']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Port St Lucie</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Port St Lucie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['34952', '34953', '34983', '34984', '34986', '34987']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IRVINE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IRVINE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['92602', '92604', '92606', '92614', '92618', '92620']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ANAHEIM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ANAHEIM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['92802', '92806', '92807']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GARDEN GROVE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GARDEN GROVE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['92843']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ORANGE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ORANGE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['92865', '92866', '92867', '92868', '92869']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SANTA ANA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SANTA ANA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['92701', '92703', '92704', '92705', '92706', '92707']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TUSTIN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TUSTIN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['92780', '92782']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VILLA PARK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VILLA PARK</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sunrise_enterprise</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['92861']</t>
         </is>
       </c>
     </row>
